--- a/biology/Histoire de la zoologie et de la botanique/Ronald_Archie_Nussbaum/Ronald_Archie_Nussbaum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ronald_Archie_Nussbaum/Ronald_Archie_Nussbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronald Archie Nussbaum est un herpétologiste américain né le 9 février 1942.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est spécialisé dans la systématique des Caeciliidae (des amphibiens de l'ordre des Gymnophiona) ainsi que des grenouilles Sooglossidae et Microhylidae des Seychelles, de l'Afrique et de l'Inde et dans l'évolution et l'écologie des amphibiens et des reptiles de Madagascar.
 Il est titulaire d'un doctorat de l'université d'État de l'Oregon (1972). Il travaille pour le Carnegie Museum et est conservateur du département d'herpétologie du Muséum de zoologie de l'université du Michigan.
@@ -543,7 +557,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Spinomantis nussbaumi Cramer, Rabibisoa &amp; Raxworthy, 2008
 Bolitoglossa nussbaumi Campbell, Smith, Streicher, Acevedo &amp; Brodie, 2010
@@ -577,7 +593,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amietophrynus Frost, Grant, Faivovich, Bain, Haas, Haddad, de Sá, Channing, Wilkinson, Donnellan, Raxworthy, Campbell, Blotto, Moler, Drewes, Nussbaum, Lynch, Green &amp; Wheeler, 2006
